--- a/00Transportation_Intro/high_speed_train_speed.xlsx
+++ b/00Transportation_Intro/high_speed_train_speed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Desktop\03MyProjects\Computational_Transportation_Science\00Transportation_Intro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B20DC9B7-342E-4E57-81A6-13D4103B06F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED32863-B283-4ED3-B7D0-E3D22F912D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="1740" windowWidth="13656" windowHeight="10584" xr2:uid="{E98C68C6-8BE3-417A-A16C-9AB1EA5C90FE}"/>
+    <workbookView xWindow="6624" yWindow="1656" windowWidth="13656" windowHeight="10584" xr2:uid="{E98C68C6-8BE3-417A-A16C-9AB1EA5C90FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>Trains</t>
   </si>
   <si>
-    <t>Max_Speed</t>
-  </si>
-  <si>
     <t>Shanghai_Mag</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>KTX</t>
+  </si>
+  <si>
+    <t>Max_Speed (km/hr)</t>
   </si>
 </sst>
 </file>
@@ -422,13 +422,13 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -436,12 +436,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>460</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>350</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>330</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>320</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>320</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>310</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>305</v>
